--- a/INTLINE/data/576/DOS/M182331 - Labour Force Aged 15 Years And Over End June Annual.xlsx
+++ b/INTLINE/data/576/DOS/M182331 - Labour Force Aged 15 Years And Over End June Annual.xlsx
@@ -274,7 +274,7 @@
     <t>Generated by: SingStat Table Builder</t>
   </si>
   <si>
-    <t>Date generated: 22/04/2022</t>
+    <t>Date generated: 14/06/2022</t>
   </si>
   <si>
     <t>Contact: info@singstat.gov.sg</t>

--- a/INTLINE/data/576/DOS/M182331 - Labour Force Aged 15 Years And Over End June Annual.xlsx
+++ b/INTLINE/data/576/DOS/M182331 - Labour Force Aged 15 Years And Over End June Annual.xlsx
@@ -274,7 +274,7 @@
     <t>Generated by: SingStat Table Builder</t>
   </si>
   <si>
-    <t>Date generated: 14/06/2022</t>
+    <t>Date generated: 27/06/2022</t>
   </si>
   <si>
     <t>Contact: info@singstat.gov.sg</t>
